--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品进口额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业商品进口额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,837 +543,837 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.12795</v>
+        <v>10.3079</v>
       </c>
       <c r="C2" t="n">
-        <v>1.11807</v>
+        <v>2.00846</v>
       </c>
       <c r="D2" t="n">
-        <v>9.55514</v>
+        <v>14.3299</v>
       </c>
       <c r="E2" t="n">
-        <v>4.42541</v>
+        <v>11.4375</v>
       </c>
       <c r="F2" t="n">
-        <v>8.78721</v>
+        <v>21.15501</v>
       </c>
       <c r="G2" t="n">
-        <v>22.04611</v>
+        <v>32.23871</v>
       </c>
       <c r="H2" t="n">
-        <v>29.14055</v>
+        <v>29.10667</v>
       </c>
       <c r="I2" t="n">
-        <v>1.98569</v>
+        <v>7.18964</v>
       </c>
       <c r="J2" t="n">
-        <v>42.72673</v>
+        <v>48.67234</v>
       </c>
       <c r="K2" t="n">
-        <v>3.34291</v>
+        <v>2.16448</v>
       </c>
       <c r="L2" t="n">
-        <v>446.53108</v>
+        <v>907.5282</v>
       </c>
       <c r="M2" t="n">
-        <v>441.23781</v>
+        <v>892.84205</v>
       </c>
       <c r="N2" t="n">
-        <v>19.15156</v>
+        <v>42.41115</v>
       </c>
       <c r="O2" t="n">
-        <v>50.3236</v>
+        <v>59.58054</v>
       </c>
       <c r="P2" t="n">
-        <v>26.96195</v>
+        <v>52.94526</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.37872</v>
+        <v>0.5640500000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>2.87954</v>
+        <v>3.60495</v>
       </c>
       <c r="S2" t="n">
-        <v>5.37237</v>
+        <v>7.77294</v>
       </c>
       <c r="T2" t="n">
-        <v>1.54793</v>
+        <v>4.28576</v>
       </c>
       <c r="U2" t="n">
-        <v>0.61093</v>
+        <v>1.93901</v>
       </c>
       <c r="V2" t="n">
-        <v>11.36677</v>
+        <v>14.45746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.3079</v>
+        <v>10.5019</v>
       </c>
       <c r="C3" t="n">
-        <v>2.00846</v>
+        <v>0.3718</v>
       </c>
       <c r="D3" t="n">
-        <v>14.3299</v>
+        <v>21.1193</v>
       </c>
       <c r="E3" t="n">
-        <v>11.4375</v>
+        <v>13.6967</v>
       </c>
       <c r="F3" t="n">
-        <v>21.15501</v>
+        <v>41.5217</v>
       </c>
       <c r="G3" t="n">
-        <v>32.23871</v>
+        <v>78.23820000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>29.10667</v>
+        <v>43.4602</v>
       </c>
       <c r="I3" t="n">
-        <v>7.18964</v>
+        <v>4.8536</v>
       </c>
       <c r="J3" t="n">
-        <v>48.67234</v>
+        <v>62.6164</v>
       </c>
       <c r="K3" t="n">
-        <v>2.16448</v>
+        <v>16.5457</v>
       </c>
       <c r="L3" t="n">
-        <v>907.5282</v>
+        <v>1427.9724</v>
       </c>
       <c r="M3" t="n">
-        <v>892.84205</v>
+        <v>1392.4385</v>
       </c>
       <c r="N3" t="n">
-        <v>42.41115</v>
+        <v>84.0582</v>
       </c>
       <c r="O3" t="n">
-        <v>59.58054</v>
+        <v>91.1259</v>
       </c>
       <c r="P3" t="n">
-        <v>52.94526</v>
+        <v>119.6723</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5640500000000001</v>
+        <v>3.0864</v>
       </c>
       <c r="R3" t="n">
-        <v>3.60495</v>
+        <v>4.2107</v>
       </c>
       <c r="S3" t="n">
-        <v>7.77294</v>
+        <v>31.9283</v>
       </c>
       <c r="T3" t="n">
-        <v>4.28576</v>
+        <v>1.6911</v>
       </c>
       <c r="U3" t="n">
-        <v>1.93901</v>
+        <v>0.3274</v>
       </c>
       <c r="V3" t="n">
-        <v>14.45746</v>
+        <v>13.2346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.5019</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3718</v>
-      </c>
+        <v>8.09327</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>21.1193</v>
+        <v>27.26603</v>
       </c>
       <c r="E4" t="n">
-        <v>13.6967</v>
+        <v>25.63858</v>
       </c>
       <c r="F4" t="n">
-        <v>41.5217</v>
+        <v>35.33115</v>
       </c>
       <c r="G4" t="n">
-        <v>78.23820000000001</v>
+        <v>81.46526</v>
       </c>
       <c r="H4" t="n">
-        <v>43.4602</v>
+        <v>77.38347</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8536</v>
+        <v>4.9352</v>
       </c>
       <c r="J4" t="n">
-        <v>62.6164</v>
+        <v>91.07331000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>16.5457</v>
+        <v>10.16394</v>
       </c>
       <c r="L4" t="n">
-        <v>1427.9724</v>
+        <v>1722.7256</v>
       </c>
       <c r="M4" t="n">
-        <v>1392.4385</v>
+        <v>1695.60504</v>
       </c>
       <c r="N4" t="n">
-        <v>84.0582</v>
+        <v>93.0859</v>
       </c>
       <c r="O4" t="n">
-        <v>91.1259</v>
+        <v>130.00629</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6723</v>
+        <v>142.10342</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.0864</v>
+        <v>3.1854</v>
       </c>
       <c r="R4" t="n">
-        <v>4.2107</v>
+        <v>12.66309</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9283</v>
+        <v>46.969</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6911</v>
+        <v>9.75446</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3274</v>
+        <v>36.3</v>
       </c>
       <c r="V4" t="n">
-        <v>13.2346</v>
+        <v>11.62959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.09327</v>
+        <v>9.247439999999999</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>27.26603</v>
+        <v>26.39733</v>
       </c>
       <c r="E5" t="n">
-        <v>25.63858</v>
+        <v>29.20538</v>
       </c>
       <c r="F5" t="n">
-        <v>35.33115</v>
+        <v>17.6786</v>
       </c>
       <c r="G5" t="n">
-        <v>81.46526</v>
+        <v>82.75139</v>
       </c>
       <c r="H5" t="n">
-        <v>77.38347</v>
+        <v>31.39837</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9352</v>
+        <v>6.24134</v>
       </c>
       <c r="J5" t="n">
-        <v>91.07331000000001</v>
+        <v>116.40528</v>
       </c>
       <c r="K5" t="n">
-        <v>10.16394</v>
+        <v>5.18183</v>
       </c>
       <c r="L5" t="n">
-        <v>1722.7256</v>
+        <v>2098.09582</v>
       </c>
       <c r="M5" t="n">
-        <v>1695.60504</v>
+        <v>2085.70796</v>
       </c>
       <c r="N5" t="n">
-        <v>93.0859</v>
+        <v>74.05522999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>130.00629</v>
+        <v>158.30574</v>
       </c>
       <c r="P5" t="n">
-        <v>142.10342</v>
+        <v>95.93565</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1854</v>
+        <v>1.58919</v>
       </c>
       <c r="R5" t="n">
-        <v>12.66309</v>
+        <v>2.05161</v>
       </c>
       <c r="S5" t="n">
-        <v>46.969</v>
+        <v>17.80394</v>
       </c>
       <c r="T5" t="n">
-        <v>9.75446</v>
+        <v>2.74276</v>
       </c>
       <c r="U5" t="n">
-        <v>36.3</v>
+        <v>2.32767</v>
       </c>
       <c r="V5" t="n">
-        <v>11.62959</v>
+        <v>26.05149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.247439999999999</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>16.17299</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.15267</v>
+      </c>
       <c r="D6" t="n">
-        <v>26.39733</v>
+        <v>45.6832</v>
       </c>
       <c r="E6" t="n">
-        <v>29.20538</v>
+        <v>31.33444</v>
       </c>
       <c r="F6" t="n">
-        <v>17.6786</v>
+        <v>24.87819</v>
       </c>
       <c r="G6" t="n">
-        <v>82.75139</v>
+        <v>51.45209</v>
       </c>
       <c r="H6" t="n">
-        <v>31.39837</v>
+        <v>34.26036</v>
       </c>
       <c r="I6" t="n">
-        <v>6.24134</v>
+        <v>7.43069</v>
       </c>
       <c r="J6" t="n">
-        <v>116.40528</v>
+        <v>93.12416</v>
       </c>
       <c r="K6" t="n">
-        <v>5.18183</v>
+        <v>12.6241</v>
       </c>
       <c r="L6" t="n">
-        <v>2098.09582</v>
+        <v>2579.98317</v>
       </c>
       <c r="M6" t="n">
-        <v>2085.70796</v>
+        <v>2558.02482</v>
       </c>
       <c r="N6" t="n">
-        <v>74.05522999999999</v>
+        <v>137.26068</v>
       </c>
       <c r="O6" t="n">
-        <v>158.30574</v>
+        <v>148.96215</v>
       </c>
       <c r="P6" t="n">
-        <v>95.93565</v>
+        <v>180.47559</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58919</v>
+        <v>17.0522</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05161</v>
+        <v>2.91839</v>
       </c>
       <c r="S6" t="n">
-        <v>17.80394</v>
+        <v>25.47016</v>
       </c>
       <c r="T6" t="n">
-        <v>2.74276</v>
+        <v>3.16494</v>
       </c>
       <c r="U6" t="n">
-        <v>2.32767</v>
+        <v>4.01705</v>
       </c>
       <c r="V6" t="n">
-        <v>26.05149</v>
+        <v>34.45035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.17299</v>
+        <v>11.7948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15267</v>
+        <v>0.6719000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>45.6832</v>
+        <v>34.3913</v>
       </c>
       <c r="E7" t="n">
-        <v>31.33444</v>
+        <v>35.233</v>
       </c>
       <c r="F7" t="n">
-        <v>24.87819</v>
+        <v>26.818</v>
       </c>
       <c r="G7" t="n">
-        <v>51.45209</v>
+        <v>47.082</v>
       </c>
       <c r="H7" t="n">
-        <v>34.26036</v>
+        <v>39.5503</v>
       </c>
       <c r="I7" t="n">
-        <v>7.43069</v>
+        <v>3.124</v>
       </c>
       <c r="J7" t="n">
-        <v>93.12416</v>
+        <v>138.6569</v>
       </c>
       <c r="K7" t="n">
-        <v>12.6241</v>
+        <v>10.5178</v>
       </c>
       <c r="L7" t="n">
-        <v>2579.98317</v>
+        <v>2134.375</v>
       </c>
       <c r="M7" t="n">
-        <v>2558.02482</v>
+        <v>2112.5401</v>
       </c>
       <c r="N7" t="n">
-        <v>137.26068</v>
+        <v>94.8009</v>
       </c>
       <c r="O7" t="n">
-        <v>148.96215</v>
+        <v>226.5842</v>
       </c>
       <c r="P7" t="n">
-        <v>180.47559</v>
+        <v>133.7151</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.0522</v>
+        <v>17.1905</v>
       </c>
       <c r="R7" t="n">
-        <v>2.91839</v>
+        <v>3.105</v>
       </c>
       <c r="S7" t="n">
-        <v>25.47016</v>
+        <v>23.2035</v>
       </c>
       <c r="T7" t="n">
-        <v>3.16494</v>
+        <v>11.1218</v>
       </c>
       <c r="U7" t="n">
-        <v>4.01705</v>
+        <v>16.9971</v>
       </c>
       <c r="V7" t="n">
-        <v>34.45035</v>
+        <v>39.7262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.7948</v>
+        <v>14.7897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6719000000000001</v>
+        <v>0.5097</v>
       </c>
       <c r="D8" t="n">
-        <v>34.3913</v>
+        <v>19.1388</v>
       </c>
       <c r="E8" t="n">
-        <v>35.233</v>
+        <v>38.9821</v>
       </c>
       <c r="F8" t="n">
-        <v>26.818</v>
+        <v>29.8783</v>
       </c>
       <c r="G8" t="n">
-        <v>47.082</v>
+        <v>52.644</v>
       </c>
       <c r="H8" t="n">
-        <v>39.5503</v>
+        <v>110.4624</v>
       </c>
       <c r="I8" t="n">
-        <v>3.124</v>
+        <v>4.5587</v>
       </c>
       <c r="J8" t="n">
-        <v>138.6569</v>
+        <v>199.8187</v>
       </c>
       <c r="K8" t="n">
-        <v>10.5178</v>
+        <v>2.8862</v>
       </c>
       <c r="L8" t="n">
-        <v>2134.375</v>
+        <v>2587.0468</v>
       </c>
       <c r="M8" t="n">
-        <v>2112.5401</v>
+        <v>2557.6872</v>
       </c>
       <c r="N8" t="n">
-        <v>94.8009</v>
+        <v>127.6185</v>
       </c>
       <c r="O8" t="n">
-        <v>226.5842</v>
+        <v>255.3024</v>
       </c>
       <c r="P8" t="n">
-        <v>133.7151</v>
+        <v>151.1515</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.1905</v>
+        <v>5.886</v>
       </c>
       <c r="R8" t="n">
-        <v>3.105</v>
+        <v>0.5311</v>
       </c>
       <c r="S8" t="n">
-        <v>23.2035</v>
+        <v>11.7641</v>
       </c>
       <c r="T8" t="n">
-        <v>11.1218</v>
+        <v>7.8111</v>
       </c>
       <c r="U8" t="n">
-        <v>16.9971</v>
+        <v>84.3796</v>
       </c>
       <c r="V8" t="n">
-        <v>39.7262</v>
+        <v>29.3025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.7897</v>
+        <v>28.24</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5097</v>
+        <v>0.906</v>
       </c>
       <c r="D9" t="n">
-        <v>19.1388</v>
+        <v>16.31</v>
       </c>
       <c r="E9" t="n">
-        <v>38.9821</v>
+        <v>54.732</v>
       </c>
       <c r="F9" t="n">
-        <v>29.8783</v>
+        <v>47.317</v>
       </c>
       <c r="G9" t="n">
-        <v>52.644</v>
+        <v>106.208</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4624</v>
+        <v>76.117</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5587</v>
+        <v>7.144</v>
       </c>
       <c r="J9" t="n">
-        <v>199.8187</v>
+        <v>221.47</v>
       </c>
       <c r="K9" t="n">
-        <v>2.8862</v>
+        <v>18</v>
       </c>
       <c r="L9" t="n">
-        <v>2587.0468</v>
+        <v>2206.622</v>
       </c>
       <c r="M9" t="n">
-        <v>2557.6872</v>
+        <v>2176.266</v>
       </c>
       <c r="N9" t="n">
-        <v>127.6185</v>
+        <v>130.426</v>
       </c>
       <c r="O9" t="n">
-        <v>255.3024</v>
+        <v>294.78</v>
       </c>
       <c r="P9" t="n">
-        <v>151.1515</v>
+        <v>187.448</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.886</v>
+        <v>4.733</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5311</v>
+        <v>22.926</v>
       </c>
       <c r="S9" t="n">
-        <v>11.7641</v>
+        <v>39.072</v>
       </c>
       <c r="T9" t="n">
-        <v>7.8111</v>
+        <v>5.734</v>
       </c>
       <c r="U9" t="n">
-        <v>84.3796</v>
+        <v>60.073</v>
       </c>
       <c r="V9" t="n">
-        <v>29.3025</v>
+        <v>26.762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.24</v>
+        <v>31.0808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.906</v>
+        <v>0.7163</v>
       </c>
       <c r="D10" t="n">
-        <v>16.31</v>
+        <v>17.5822</v>
       </c>
       <c r="E10" t="n">
-        <v>54.732</v>
+        <v>55.2803</v>
       </c>
       <c r="F10" t="n">
-        <v>47.317</v>
+        <v>48.3384</v>
       </c>
       <c r="G10" t="n">
-        <v>106.208</v>
+        <v>129.572</v>
       </c>
       <c r="H10" t="n">
-        <v>76.117</v>
+        <v>94.88460000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>7.144</v>
+        <v>7.6731</v>
       </c>
       <c r="J10" t="n">
-        <v>221.47</v>
+        <v>178.1229</v>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>14.0345</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.622</v>
+        <v>2056.9241</v>
       </c>
       <c r="M10" t="n">
-        <v>2176.266</v>
+        <v>2023.7453</v>
       </c>
       <c r="N10" t="n">
-        <v>130.426</v>
+        <v>164.8341</v>
       </c>
       <c r="O10" t="n">
-        <v>294.78</v>
+        <v>284.9182</v>
       </c>
       <c r="P10" t="n">
-        <v>187.448</v>
+        <v>191.1505</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.733</v>
+        <v>10.4431</v>
       </c>
       <c r="R10" t="n">
-        <v>22.926</v>
+        <v>26.9975</v>
       </c>
       <c r="S10" t="n">
-        <v>39.072</v>
+        <v>17.5019</v>
       </c>
       <c r="T10" t="n">
-        <v>5.734</v>
+        <v>5.4088</v>
       </c>
       <c r="U10" t="n">
-        <v>60.073</v>
+        <v>79.253</v>
       </c>
       <c r="V10" t="n">
-        <v>26.762</v>
+        <v>47.7006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.0808</v>
+        <v>15.8938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7163</v>
+        <v>0.8997000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>17.5822</v>
+        <v>28.1692</v>
       </c>
       <c r="E11" t="n">
-        <v>55.2803</v>
+        <v>62.4844</v>
       </c>
       <c r="F11" t="n">
-        <v>48.3384</v>
+        <v>36.8095</v>
       </c>
       <c r="G11" t="n">
-        <v>129.572</v>
+        <v>121.2961</v>
       </c>
       <c r="H11" t="n">
-        <v>94.88460000000001</v>
+        <v>163.0577</v>
       </c>
       <c r="I11" t="n">
-        <v>7.6731</v>
+        <v>16.3888</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1229</v>
+        <v>211.9509</v>
       </c>
       <c r="K11" t="n">
-        <v>14.0345</v>
+        <v>22.4736</v>
       </c>
       <c r="L11" t="n">
-        <v>2056.9241</v>
+        <v>2132.7577</v>
       </c>
       <c r="M11" t="n">
-        <v>2023.7453</v>
+        <v>2078.0656</v>
       </c>
       <c r="N11" t="n">
-        <v>164.8341</v>
+        <v>286.7278</v>
       </c>
       <c r="O11" t="n">
-        <v>284.9182</v>
+        <v>272.118</v>
       </c>
       <c r="P11" t="n">
-        <v>191.1505</v>
+        <v>356.6331</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.4431</v>
+        <v>16.0182</v>
       </c>
       <c r="R11" t="n">
-        <v>26.9975</v>
+        <v>7.2832</v>
       </c>
       <c r="S11" t="n">
-        <v>17.5019</v>
+        <v>62.6174</v>
       </c>
       <c r="T11" t="n">
-        <v>5.4088</v>
+        <v>1.0406</v>
       </c>
       <c r="U11" t="n">
-        <v>79.253</v>
+        <v>112.1119</v>
       </c>
       <c r="V11" t="n">
-        <v>47.7006</v>
+        <v>46.8437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.8938</v>
+        <v>18.3769</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8997000000000001</v>
+        <v>1.7346</v>
       </c>
       <c r="D12" t="n">
-        <v>28.1692</v>
+        <v>27.3251</v>
       </c>
       <c r="E12" t="n">
-        <v>62.4844</v>
+        <v>61.2517</v>
       </c>
       <c r="F12" t="n">
-        <v>36.8095</v>
+        <v>31.6961</v>
       </c>
       <c r="G12" t="n">
-        <v>121.2961</v>
+        <v>148.6268</v>
       </c>
       <c r="H12" t="n">
-        <v>163.0577</v>
+        <v>174.9319</v>
       </c>
       <c r="I12" t="n">
-        <v>16.3888</v>
+        <v>5.0122</v>
       </c>
       <c r="J12" t="n">
-        <v>211.9509</v>
+        <v>278.2845</v>
       </c>
       <c r="K12" t="n">
-        <v>22.4736</v>
+        <v>2.2062</v>
       </c>
       <c r="L12" t="n">
-        <v>2132.7577</v>
+        <v>2136.5579</v>
       </c>
       <c r="M12" t="n">
-        <v>2078.0656</v>
+        <v>2102.1379</v>
       </c>
       <c r="N12" t="n">
-        <v>286.7278</v>
+        <v>365.4869</v>
       </c>
       <c r="O12" t="n">
-        <v>272.118</v>
+        <v>314.0148</v>
       </c>
       <c r="P12" t="n">
-        <v>356.6331</v>
+        <v>395.4172</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.0182</v>
+        <v>17.2028</v>
       </c>
       <c r="R12" t="n">
-        <v>7.2832</v>
+        <v>3.6181</v>
       </c>
       <c r="S12" t="n">
-        <v>62.6174</v>
+        <v>15.9746</v>
       </c>
       <c r="T12" t="n">
-        <v>1.0406</v>
+        <v>4.1586</v>
       </c>
       <c r="U12" t="n">
-        <v>112.1119</v>
+        <v>157.7731</v>
       </c>
       <c r="V12" t="n">
-        <v>46.8437</v>
+        <v>31.1943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.3769</v>
+        <v>25.8313</v>
       </c>
       <c r="C13" t="n">
-        <v>1.7346</v>
+        <v>1.4215</v>
       </c>
       <c r="D13" t="n">
-        <v>27.3251</v>
+        <v>22.931</v>
       </c>
       <c r="E13" t="n">
-        <v>61.2517</v>
+        <v>55.7738</v>
       </c>
       <c r="F13" t="n">
-        <v>31.6961</v>
+        <v>22.0862</v>
       </c>
       <c r="G13" t="n">
-        <v>148.6268</v>
+        <v>134.1655</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9319</v>
+        <v>228.4567</v>
       </c>
       <c r="I13" t="n">
-        <v>5.0122</v>
+        <v>8.4711</v>
       </c>
       <c r="J13" t="n">
-        <v>278.2845</v>
+        <v>370.8813</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2062</v>
+        <v>3.1127</v>
       </c>
       <c r="L13" t="n">
-        <v>2136.5579</v>
+        <v>2277.8977</v>
       </c>
       <c r="M13" t="n">
-        <v>2102.1379</v>
+        <v>2235.343</v>
       </c>
       <c r="N13" t="n">
-        <v>365.4869</v>
+        <v>453.9622</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0148</v>
+        <v>473.7532</v>
       </c>
       <c r="P13" t="n">
-        <v>395.4172</v>
+        <v>467.1902</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.2028</v>
+        <v>10.0696</v>
       </c>
       <c r="R13" t="n">
-        <v>3.6181</v>
+        <v>3.6113</v>
       </c>
       <c r="S13" t="n">
-        <v>15.9746</v>
+        <v>11.6803</v>
       </c>
       <c r="T13" t="n">
-        <v>4.1586</v>
+        <v>0.5344</v>
       </c>
       <c r="U13" t="n">
-        <v>157.7731</v>
+        <v>221.296</v>
       </c>
       <c r="V13" t="n">
-        <v>31.1943</v>
+        <v>30.7169</v>
       </c>
     </row>
   </sheetData>
